--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_122.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_122.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:36.600000', '0:00:39')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:36.400000', '0:00:41.700000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.84, 15.86)]</t>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:09.060000', '0:00:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.24, 13.86)]</t>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1480769230769231</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:00:59.620000', '0:01:04.340000'), ('0:00:18.120000', '0:00:24.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:43.926916', '0:00:50.765192'), ('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:00:35.220000', '0:00:40')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.52, 29.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.5, 5.58)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
